--- a/revenue-2000-2023-by-operating-segment.xlsx
+++ b/revenue-2000-2023-by-operating-segment.xlsx
@@ -167,11 +167,12 @@
     <numFmt numFmtId="169" formatCode="0%"/>
     <numFmt numFmtId="170" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -187,12 +188,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -243,38 +238,48 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -303,11 +308,11 @@
   </sheetPr>
   <dimension ref="B3:T29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7"/>
